--- a/Dados/MEF_Porta.xlsx
+++ b/Dados/MEF_Porta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28401"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fredi\OneDrive\Documentos\MI - Projeto de Circuitos Digitais\PBL_3\PBL_Elevador\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0C80DA-6481-4049-BB29-4C6F73E34707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C32773-6EA0-4CE2-822E-47AF95DA9A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{827B41BA-8797-4863-978F-170200321343}"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="17280" windowHeight="9465" xr2:uid="{827B41BA-8797-4863-978F-170200321343}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,21 +36,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>Alarme</t>
-  </si>
-  <si>
-    <t>Direção_A</t>
-  </si>
-  <si>
-    <t>Direção_B</t>
   </si>
   <si>
     <t>E. Atual</t>
   </si>
   <si>
     <t>E. Próximo</t>
+  </si>
+  <si>
+    <t>Motor_0</t>
+  </si>
+  <si>
+    <t>Motor_1</t>
+  </si>
+  <si>
+    <t>Calls</t>
   </si>
 </sst>
 </file>
@@ -428,7 +431,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,24 +447,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -490,12 +499,19 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
       <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -524,12 +540,19 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
       <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -558,12 +581,19 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
       <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -592,12 +622,19 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
       <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -626,12 +663,19 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
       <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -660,12 +704,19 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
       <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -694,12 +745,19 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -728,12 +786,19 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
       <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -762,7 +827,6 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -796,7 +860,6 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -830,7 +893,6 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -864,7 +926,6 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -898,7 +959,6 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -932,7 +992,6 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -966,7 +1025,6 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1000,7 +1058,6 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>

--- a/Dados/MEF_Porta.xlsx
+++ b/Dados/MEF_Porta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28403"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fredi\OneDrive\Documentos\MI - Projeto de Circuitos Digitais\PBL_3\PBL_Elevador\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C32773-6EA0-4CE2-822E-47AF95DA9A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A472D90C-7DB3-4801-B789-B041F1E96D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="17280" windowHeight="9465" xr2:uid="{827B41BA-8797-4863-978F-170200321343}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{827B41BA-8797-4863-978F-170200321343}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Alarme</t>
   </si>
@@ -45,12 +45,6 @@
   </si>
   <si>
     <t>E. Próximo</t>
-  </si>
-  <si>
-    <t>Motor_0</t>
-  </si>
-  <si>
-    <t>Motor_1</t>
   </si>
   <si>
     <t>Calls</t>
@@ -431,7 +425,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,27 +444,13 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="F1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="J1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -490,28 +470,13 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -529,30 +494,15 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1</v>
-      </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -567,33 +517,18 @@
         <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1">
-        <v>1</v>
-      </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -608,33 +543,18 @@
         <v>0</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1</v>
-      </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1">
-        <v>1</v>
-      </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -646,36 +566,21 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -687,36 +592,21 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="J7" s="1">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>1</v>
-      </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -728,36 +618,21 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -769,7 +644,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -777,28 +652,13 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1">
-        <v>1</v>
-      </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -809,22 +669,12 @@
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
+      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="J10" s="1"/>
@@ -842,22 +692,12 @@
       <c r="V10" s="1"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
+      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="J11" s="1"/>
@@ -875,22 +715,12 @@
       <c r="V11" s="1"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
+      <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="J12" s="1"/>
@@ -908,22 +738,12 @@
       <c r="V12" s="1"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>1</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
+      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="J13" s="1"/>
@@ -941,22 +761,12 @@
       <c r="V13" s="1"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>1</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
+      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="J14" s="1"/>
@@ -974,22 +784,12 @@
       <c r="V14" s="1"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>1</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
+      <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="J15" s="1"/>
@@ -1007,22 +807,12 @@
       <c r="V15" s="1"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>1</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
+      <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="J16" s="1"/>
@@ -1040,22 +830,12 @@
       <c r="V16" s="1"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
+      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="J17" s="1"/>

--- a/Dados/MEF_Porta.xlsx
+++ b/Dados/MEF_Porta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28411"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fredi\OneDrive\Documentos\MI - Projeto de Circuitos Digitais\PBL_3\PBL_Elevador\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A472D90C-7DB3-4801-B789-B041F1E96D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15982ABB-519F-4660-92A3-F9FE4D1ACDE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{827B41BA-8797-4863-978F-170200321343}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{827B41BA-8797-4863-978F-170200321343}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>Alarme</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>Calls</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Calls = entrada referente a verificação das chamadas do andar e do andar atual. Retorna 1 se forem diferentes e 0 se forem iguais.</t>
   </si>
 </sst>
 </file>
@@ -83,11 +89,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,7 +432,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,6 +458,18 @@
       </c>
       <c r="F1" s="1"/>
       <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -477,6 +496,19 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -503,6 +535,19 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -529,6 +574,19 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -555,6 +613,19 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -581,6 +652,19 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -607,6 +691,19 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -633,6 +730,19 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -659,6 +769,19 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -715,13 +838,15 @@
       <c r="V11" s="1"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="A12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
       <c r="H12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>

--- a/Dados/MEF_Porta.xlsx
+++ b/Dados/MEF_Porta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fredi\OneDrive\Documentos\MI - Projeto de Circuitos Digitais\PBL_3\PBL_Elevador\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15982ABB-519F-4660-92A3-F9FE4D1ACDE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29935ED-B45A-4A3B-8D47-9199F07B78A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{827B41BA-8797-4863-978F-170200321343}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{827B41BA-8797-4863-978F-170200321343}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Alarme</t>
   </si>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t>Calls = entrada referente a verificação das chamadas do andar e do andar atual. Retorna 1 se forem diferentes e 0 se forem iguais.</t>
+  </si>
+  <si>
+    <t>Porta</t>
+  </si>
+  <si>
+    <t>0 = Aberta</t>
+  </si>
+  <si>
+    <t>1 = Fechada</t>
   </si>
 </sst>
 </file>
@@ -89,12 +98,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,7 +440,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,6 +465,9 @@
         <v>2</v>
       </c>
       <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1" t="s">
         <v>0</v>
@@ -494,7 +505,9 @@
         <v>0</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1">
         <v>0</v>
@@ -533,7 +546,9 @@
         <v>0</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1">
         <v>0</v>
@@ -838,15 +853,9 @@
       <c r="V11" s="1"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
       <c r="H12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>

--- a/Dados/MEF_Porta.xlsx
+++ b/Dados/MEF_Porta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28412"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fredi\OneDrive\Documentos\MI - Projeto de Circuitos Digitais\PBL_3\PBL_Elevador\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29935ED-B45A-4A3B-8D47-9199F07B78A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364A8749-CF21-456E-809F-A04717B7C776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{827B41BA-8797-4863-978F-170200321343}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{827B41BA-8797-4863-978F-170200321343}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
